--- a/nr-mv-MS/ig/StructureDefinition-as-dr-person.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-person.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="430">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,9 +663,6 @@
 </t>
   </si>
   <si>
-    <t>PersonnePhysique.lieuNaissance</t>
-  </si>
-  <si>
     <t>Person.extension:as-ext-person-deceased-date-time</t>
   </si>
   <si>
@@ -680,9 +677,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
-  </si>
-  <si>
-    <t>PersonnePhysique.dateDeces</t>
   </si>
   <si>
     <t>Person.modifierExtension</t>
@@ -3998,7 +3992,7 @@
         <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4012,13 +4006,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>197</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -4040,13 +4034,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4112,7 +4106,7 @@
         <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4126,10 +4120,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4155,16 +4149,16 @@
         <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4213,7 +4207,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4242,10 +4236,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4268,17 +4262,17 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4327,7 +4321,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4345,21 +4339,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4382,19 +4376,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4443,7 +4437,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4461,21 +4455,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4584,10 +4578,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4698,13 +4692,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
@@ -4726,13 +4720,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4812,10 +4806,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4841,16 +4835,16 @@
         <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4875,11 +4869,11 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4897,7 +4891,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4915,21 +4909,21 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4955,16 +4949,16 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5013,7 +5007,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5031,25 +5025,25 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5071,13 +5065,13 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5127,7 +5121,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5142,28 +5136,28 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5185,13 +5179,13 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5241,7 +5235,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5256,24 +5250,24 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5299,10 +5293,10 @@
         <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5332,28 +5326,28 @@
         <v>155</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5368,24 +5362,24 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5411,10 +5405,10 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5444,28 +5438,28 @@
         <v>155</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5483,21 +5477,21 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5520,17 +5514,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5579,7 +5573,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5597,21 +5591,21 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5634,19 +5628,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5695,7 +5689,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5713,21 +5707,21 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5836,10 +5830,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5950,13 +5944,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5978,13 +5972,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6064,10 +6058,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6093,10 +6087,10 @@
         <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6123,31 +6117,31 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6156,7 +6150,7 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6165,21 +6159,21 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6205,16 +6199,16 @@
         <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6263,7 +6257,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6281,21 +6275,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6321,16 +6315,16 @@
         <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6355,31 +6349,31 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6397,21 +6391,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6434,16 +6428,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6493,7 +6487,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6522,10 +6516,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6548,13 +6542,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6605,7 +6599,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6623,7 +6617,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6634,10 +6628,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6663,16 +6657,16 @@
         <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6697,13 +6691,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6721,7 +6715,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6736,24 +6730,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6776,19 +6770,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6852,24 +6846,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6892,19 +6886,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6953,7 +6947,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6971,21 +6965,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7008,13 +7002,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7065,7 +7059,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7083,21 +7077,21 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7120,17 +7114,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7179,7 +7173,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7197,7 +7191,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7208,10 +7202,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7234,17 +7228,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7293,7 +7287,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7311,10 +7305,10 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7322,10 +7316,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7348,13 +7342,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7393,7 +7387,7 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
@@ -7403,7 +7397,7 @@
         <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7421,7 +7415,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7432,10 +7426,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7544,10 +7538,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7658,14 +7652,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7687,16 +7681,16 @@
         <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7745,7 +7739,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7774,10 +7768,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7800,13 +7794,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7857,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -7875,7 +7869,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7886,10 +7880,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7915,10 +7909,10 @@
         <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7945,13 +7939,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7969,7 +7963,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7987,7 +7981,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7998,13 +7992,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8026,13 +8020,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8083,7 +8077,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8101,7 +8095,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8112,10 +8106,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8224,10 +8218,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8338,14 +8332,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8367,16 +8361,16 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8425,7 +8419,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8454,10 +8448,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8480,13 +8474,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8537,7 +8531,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -8555,7 +8549,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8566,10 +8560,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8595,10 +8589,10 @@
         <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8625,13 +8619,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8649,7 +8643,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8667,7 +8661,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>

--- a/nr-mv-MS/ig/StructureDefinition-as-dr-person.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
